--- a/com.InnovanaThinkLabs.SoleFit/src/test/resources/updated.xlsx
+++ b/com.InnovanaThinkLabs.SoleFit/src/test/resources/updated.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabish\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617AC9E5-F69E-4BFC-A443-24166D968B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8A935-9FBC-40F4-B853-823477BFF99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A61989CD-6EFE-45DA-8D36-352488ABC9E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A61989CD-6EFE-45DA-8D36-352488ABC9E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Country</t>
   </si>
@@ -109,7 +110,10 @@
     <t>Ind</t>
   </si>
   <si>
-    <t xml:space="preserve">Jai </t>
+    <t>Jai 1</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EF9216-5E57-41AA-B5A9-D80D60C81C76}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="L2">
-        <v>1234567987</v>
+        <v>123456</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>23</v>
@@ -601,6 +605,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{53EBF904-5ACF-4CD1-9EAC-15390049471F}"/>
@@ -608,4 +613,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1EAF07-90BF-4F1C-8B67-78599F2A0EB7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>